--- a/dorm_dict.xlsx
+++ b/dorm_dict.xlsx
@@ -11634,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="M193" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N193" s="1" t="n">
         <v>0</v>
@@ -11692,7 +11692,7 @@
         <v>1</v>
       </c>
       <c r="M194" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N194" s="1" t="n">
         <v>0</v>
@@ -11808,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="M196" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N196" s="1" t="n">
         <v>0</v>

--- a/dorm_dict.xlsx
+++ b/dorm_dict.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R241"/>
+  <dimension ref="A1:S241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,65 +452,70 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>3N</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>3S</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>4N</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>4S</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>5N</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>5S</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>6N</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>6S</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>7#</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>8#</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>9N</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>9S</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>10N</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>10S</t>
         </is>
@@ -535,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0</v>
@@ -544,16 +549,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1" t="n">
         <v>0</v>
@@ -562,15 +567,18 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0</v>
@@ -602,16 +610,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1" t="n">
         <v>0</v>
@@ -620,15 +628,18 @@
         <v>0</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -651,25 +662,25 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>0</v>
@@ -678,15 +689,18 @@
         <v>0</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -709,16 +723,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>1</v>
@@ -730,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>0</v>
@@ -739,12 +753,15 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -773,10 +790,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>1</v>
@@ -788,13 +805,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1" t="n">
         <v>1</v>
@@ -803,6 +820,9 @@
         <v>1</v>
       </c>
       <c r="R6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -831,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>1</v>
@@ -846,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>0</v>
@@ -855,12 +875,15 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -889,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>1</v>
@@ -904,13 +927,13 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>1</v>
@@ -919,6 +942,9 @@
         <v>1</v>
       </c>
       <c r="R8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -962,13 +988,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>1</v>
@@ -977,6 +1003,9 @@
         <v>1</v>
       </c>
       <c r="R9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1020,13 +1049,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>1</v>
@@ -1035,6 +1064,9 @@
         <v>1</v>
       </c>
       <c r="R10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1054,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>1</v>
@@ -1078,13 +1110,13 @@
         <v>1</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>1</v>
@@ -1093,6 +1125,9 @@
         <v>1</v>
       </c>
       <c r="R11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1136,13 +1171,13 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1" t="n">
         <v>1</v>
@@ -1151,6 +1186,9 @@
         <v>1</v>
       </c>
       <c r="R12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,13 +1232,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1" t="n">
         <v>1</v>
@@ -1209,6 +1247,9 @@
         <v>1</v>
       </c>
       <c r="R13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1252,13 +1293,13 @@
         <v>1</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1" t="n">
         <v>1</v>
@@ -1267,6 +1308,9 @@
         <v>1</v>
       </c>
       <c r="R14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1310,13 +1354,13 @@
         <v>1</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1" t="n">
         <v>1</v>
@@ -1325,6 +1369,9 @@
         <v>1</v>
       </c>
       <c r="R15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1362,27 +1409,30 @@
         <v>1</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,13 +1476,13 @@
         <v>1</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1" t="n">
         <v>1</v>
@@ -1441,6 +1491,9 @@
         <v>1</v>
       </c>
       <c r="R17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1484,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>0</v>
@@ -1493,12 +1546,15 @@
         <v>0</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1542,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1" t="n">
         <v>1</v>
@@ -1557,6 +1613,9 @@
         <v>1</v>
       </c>
       <c r="R19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1600,21 +1659,24 @@
         <v>1</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,13 +1720,13 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1" t="n">
         <v>1</v>
@@ -1673,6 +1735,9 @@
         <v>1</v>
       </c>
       <c r="R21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1713,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1" t="n">
         <v>0</v>
@@ -1722,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1" t="n">
         <v>1</v>
@@ -1731,6 +1796,9 @@
         <v>1</v>
       </c>
       <c r="R22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1" t="n">
         <v>0</v>
@@ -1786,9 +1854,12 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1826,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1" t="n">
         <v>0</v>
@@ -1844,9 +1915,12 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1902,9 +1976,12 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1942,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1" t="n">
         <v>0</v>
@@ -1960,9 +2037,12 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2000,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1" t="n">
         <v>0</v>
@@ -2018,9 +2098,12 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1" t="n">
         <v>0</v>
@@ -2076,9 +2159,12 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2134,9 +2220,12 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2192,9 +2281,12 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2250,9 +2342,12 @@
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2308,9 +2403,12 @@
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2366,9 +2464,12 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,9 +2525,12 @@
         <v>0</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2482,9 +2586,12 @@
         <v>0</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2540,9 +2647,12 @@
         <v>0</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2598,9 +2708,12 @@
         <v>0</v>
       </c>
       <c r="Q37" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2661,6 +2774,9 @@
       <c r="R38" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S38" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2719,6 +2835,9 @@
       <c r="R39" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S39" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2777,6 +2896,9 @@
       <c r="R40" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S40" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2835,6 +2957,9 @@
       <c r="R41" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S41" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2893,6 +3018,9 @@
       <c r="R42" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S42" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2951,6 +3079,9 @@
       <c r="R43" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S43" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3009,6 +3140,9 @@
       <c r="R44" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S44" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3067,6 +3201,9 @@
       <c r="R45" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S45" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3125,6 +3262,9 @@
       <c r="R46" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S46" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -3183,6 +3323,9 @@
       <c r="R47" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S47" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3241,6 +3384,9 @@
       <c r="R48" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S48" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3299,6 +3445,9 @@
       <c r="R49" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S49" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3357,6 +3506,9 @@
       <c r="R50" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S50" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3401,10 +3553,10 @@
         <v>1</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="1" t="n">
         <v>1</v>
@@ -3413,6 +3565,9 @@
         <v>1</v>
       </c>
       <c r="R51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3473,6 +3628,9 @@
       <c r="R52" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S52" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3508,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="1" t="n">
         <v>1</v>
@@ -3529,6 +3687,9 @@
         <v>1</v>
       </c>
       <c r="R53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3589,6 +3750,9 @@
       <c r="R54" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S54" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -3647,6 +3811,9 @@
       <c r="R55" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S55" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3682,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="1" t="n">
         <v>1</v>
@@ -3700,9 +3867,12 @@
         <v>1</v>
       </c>
       <c r="Q56" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,6 +3933,9 @@
       <c r="R57" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S57" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3810,15 +3983,18 @@
         <v>1</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3879,6 +4055,9 @@
       <c r="R59" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="S59" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3929,12 +4108,15 @@
         <v>1</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3978,10 +4160,10 @@
         <v>1</v>
       </c>
       <c r="M61" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="1" t="n">
         <v>1</v>
@@ -3993,6 +4175,9 @@
         <v>1</v>
       </c>
       <c r="R61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4039,10 +4224,10 @@
         <v>1</v>
       </c>
       <c r="N62" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="1" t="n">
         <v>1</v>
@@ -4051,6 +4236,9 @@
         <v>1</v>
       </c>
       <c r="R62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>1</v>
@@ -4109,6 +4297,9 @@
         <v>1</v>
       </c>
       <c r="R63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4131,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>1</v>
@@ -4167,6 +4358,9 @@
         <v>1</v>
       </c>
       <c r="R64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1" t="n">
         <v>1</v>
@@ -4225,6 +4419,9 @@
         <v>1</v>
       </c>
       <c r="R65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>1</v>
@@ -4283,6 +4480,9 @@
         <v>1</v>
       </c>
       <c r="R66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4305,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>1</v>
@@ -4323,10 +4523,10 @@
         <v>1</v>
       </c>
       <c r="L67" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" s="1" t="n">
         <v>1</v>
@@ -4341,6 +4541,9 @@
         <v>1</v>
       </c>
       <c r="R67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4363,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>1</v>
@@ -4399,6 +4602,9 @@
         <v>1</v>
       </c>
       <c r="R68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1" t="n">
         <v>1</v>
@@ -4457,6 +4663,9 @@
         <v>1</v>
       </c>
       <c r="R69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1" t="n">
         <v>1</v>
@@ -4515,6 +4724,9 @@
         <v>1</v>
       </c>
       <c r="R70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4552,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1" t="n">
         <v>1</v>
@@ -4573,6 +4785,9 @@
         <v>1</v>
       </c>
       <c r="R71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1" t="n">
         <v>1</v>
@@ -4631,6 +4846,9 @@
         <v>1</v>
       </c>
       <c r="R72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1" t="n">
         <v>1</v>
@@ -4689,6 +4907,9 @@
         <v>1</v>
       </c>
       <c r="R73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4726,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1" t="n">
         <v>1</v>
@@ -4747,6 +4968,9 @@
         <v>1</v>
       </c>
       <c r="R74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4784,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1" t="n">
         <v>1</v>
@@ -4805,6 +5029,9 @@
         <v>1</v>
       </c>
       <c r="R75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4842,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1" t="n">
         <v>1</v>
@@ -4863,6 +5090,9 @@
         <v>1</v>
       </c>
       <c r="R76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1" t="n">
         <v>1</v>
@@ -4921,6 +5151,9 @@
         <v>1</v>
       </c>
       <c r="R77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="M78" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" s="1" t="n">
         <v>0</v>
@@ -4979,6 +5212,9 @@
         <v>0</v>
       </c>
       <c r="R78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5022,10 +5258,10 @@
         <v>0</v>
       </c>
       <c r="M79" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" s="1" t="n">
         <v>0</v>
@@ -5037,6 +5273,9 @@
         <v>0</v>
       </c>
       <c r="R79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5080,10 +5319,10 @@
         <v>0</v>
       </c>
       <c r="M80" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" s="1" t="n">
         <v>0</v>
@@ -5095,6 +5334,9 @@
         <v>0</v>
       </c>
       <c r="R80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5155,6 +5397,9 @@
       <c r="R81" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S81" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -5175,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>1</v>
@@ -5211,6 +5456,9 @@
         <v>1</v>
       </c>
       <c r="R82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5233,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>1</v>
@@ -5269,6 +5517,9 @@
         <v>1</v>
       </c>
       <c r="R83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5291,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>1</v>
@@ -5327,6 +5578,9 @@
         <v>1</v>
       </c>
       <c r="R84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5349,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>1</v>
@@ -5385,6 +5639,9 @@
         <v>1</v>
       </c>
       <c r="R85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S85" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5407,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>1</v>
@@ -5425,10 +5682,10 @@
         <v>1</v>
       </c>
       <c r="L86" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86" s="1" t="n">
         <v>1</v>
@@ -5443,6 +5700,9 @@
         <v>1</v>
       </c>
       <c r="R86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5465,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>1</v>
@@ -5486,10 +5746,10 @@
         <v>1</v>
       </c>
       <c r="M87" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87" s="1" t="n">
         <v>1</v>
@@ -5501,6 +5761,9 @@
         <v>1</v>
       </c>
       <c r="R87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>1</v>
@@ -5559,6 +5822,9 @@
         <v>1</v>
       </c>
       <c r="R88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5581,7 +5847,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>1</v>
@@ -5617,6 +5883,9 @@
         <v>1</v>
       </c>
       <c r="R89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5639,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="1" t="n">
         <v>1</v>
@@ -5675,6 +5944,9 @@
         <v>1</v>
       </c>
       <c r="R90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" s="1" t="n">
         <v>1</v>
@@ -5733,6 +6005,9 @@
         <v>1</v>
       </c>
       <c r="R91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5755,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="1" t="n">
         <v>1</v>
@@ -5791,6 +6066,9 @@
         <v>1</v>
       </c>
       <c r="R92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5813,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="1" t="n">
         <v>1</v>
@@ -5849,6 +6127,9 @@
         <v>1</v>
       </c>
       <c r="R93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S93" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5871,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="1" t="n">
         <v>1</v>
@@ -5907,6 +6188,9 @@
         <v>1</v>
       </c>
       <c r="R94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S94" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5929,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" s="1" t="n">
         <v>1</v>
@@ -5950,10 +6234,10 @@
         <v>1</v>
       </c>
       <c r="M95" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" s="1" t="n">
         <v>1</v>
@@ -5965,6 +6249,9 @@
         <v>1</v>
       </c>
       <c r="R95" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S95" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5987,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>1</v>
@@ -6002,10 +6289,10 @@
         <v>1</v>
       </c>
       <c r="K96" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96" s="1" t="n">
         <v>1</v>
@@ -6020,9 +6307,12 @@
         <v>1</v>
       </c>
       <c r="Q96" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6045,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>1</v>
@@ -6081,6 +6371,9 @@
         <v>1</v>
       </c>
       <c r="R97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S97" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6103,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" s="1" t="n">
         <v>1</v>
@@ -6130,15 +6423,18 @@
         <v>1</v>
       </c>
       <c r="O98" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R98" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S98" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6161,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>1</v>
@@ -6182,10 +6478,10 @@
         <v>1</v>
       </c>
       <c r="M99" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" s="1" t="n">
         <v>1</v>
@@ -6197,6 +6493,9 @@
         <v>1</v>
       </c>
       <c r="R99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S99" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6219,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" s="1" t="n">
         <v>1</v>
@@ -6255,6 +6554,9 @@
         <v>1</v>
       </c>
       <c r="R100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S100" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6277,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>1</v>
@@ -6313,6 +6615,9 @@
         <v>1</v>
       </c>
       <c r="R101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S101" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6335,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" s="1" t="n">
         <v>1</v>
@@ -6359,18 +6664,21 @@
         <v>1</v>
       </c>
       <c r="N102" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6393,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" s="1" t="n">
         <v>1</v>
@@ -6429,6 +6737,9 @@
         <v>1</v>
       </c>
       <c r="R103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6451,7 +6762,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>1</v>
@@ -6460,19 +6771,19 @@
         <v>1</v>
       </c>
       <c r="I104" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L104" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104" s="1" t="n">
         <v>1</v>
@@ -6487,6 +6798,9 @@
         <v>1</v>
       </c>
       <c r="R104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S104" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6524,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="1" t="n">
         <v>1</v>
@@ -6545,6 +6859,9 @@
         <v>1</v>
       </c>
       <c r="R105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S105" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6567,7 +6884,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" s="1" t="n">
         <v>1</v>
@@ -6576,10 +6893,10 @@
         <v>1</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" s="1" t="n">
         <v>1</v>
@@ -6603,6 +6920,9 @@
         <v>1</v>
       </c>
       <c r="R106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S106" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6625,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" s="1" t="n">
         <v>1</v>
@@ -6634,10 +6954,10 @@
         <v>1</v>
       </c>
       <c r="I107" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" s="1" t="n">
         <v>1</v>
@@ -6661,6 +6981,9 @@
         <v>1</v>
       </c>
       <c r="R107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S107" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6683,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" s="1" t="n">
         <v>1</v>
@@ -6692,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="I108" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="1" t="n">
         <v>1</v>
@@ -6719,6 +7042,9 @@
         <v>1</v>
       </c>
       <c r="R108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S108" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6756,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" s="1" t="n">
         <v>1</v>
@@ -6777,6 +7103,9 @@
         <v>1</v>
       </c>
       <c r="R109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S109" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6814,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" s="1" t="n">
         <v>1</v>
@@ -6835,6 +7164,9 @@
         <v>1</v>
       </c>
       <c r="R110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S110" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6872,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" s="1" t="n">
         <v>1</v>
@@ -6893,6 +7225,9 @@
         <v>1</v>
       </c>
       <c r="R111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S111" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6933,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="L112" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M112" s="1" t="n">
         <v>1</v>
@@ -6951,6 +7286,9 @@
         <v>1</v>
       </c>
       <c r="R112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S112" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6988,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" s="1" t="n">
         <v>1</v>
@@ -7009,6 +7347,9 @@
         <v>1</v>
       </c>
       <c r="R113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S113" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" s="1" t="n">
         <v>1</v>
@@ -7067,6 +7408,9 @@
         <v>1</v>
       </c>
       <c r="R114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S114" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7104,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" s="1" t="n">
         <v>1</v>
@@ -7125,6 +7469,9 @@
         <v>1</v>
       </c>
       <c r="R115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S115" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7162,16 +7509,16 @@
         <v>0</v>
       </c>
       <c r="K116" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M116" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N116" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O116" s="1" t="n">
         <v>1</v>
@@ -7183,6 +7530,9 @@
         <v>1</v>
       </c>
       <c r="R116" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S116" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7220,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117" s="1" t="n">
         <v>1</v>
@@ -7241,6 +7591,9 @@
         <v>1</v>
       </c>
       <c r="R117" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S117" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7278,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118" s="1" t="n">
         <v>1</v>
@@ -7299,6 +7652,9 @@
         <v>1</v>
       </c>
       <c r="R118" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S118" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7342,10 +7698,10 @@
         <v>0</v>
       </c>
       <c r="M119" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119" s="1" t="n">
         <v>0</v>
@@ -7357,6 +7713,9 @@
         <v>0</v>
       </c>
       <c r="R119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7417,6 +7776,9 @@
       <c r="R120" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S120" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -7475,6 +7837,9 @@
       <c r="R121" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S121" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -7495,7 +7860,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" s="1" t="n">
         <v>1</v>
@@ -7504,10 +7869,10 @@
         <v>1</v>
       </c>
       <c r="I122" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" s="1" t="n">
         <v>1</v>
@@ -7531,6 +7896,9 @@
         <v>1</v>
       </c>
       <c r="R122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S122" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>1</v>
@@ -7562,10 +7930,10 @@
         <v>1</v>
       </c>
       <c r="I123" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" s="1" t="n">
         <v>1</v>
@@ -7589,6 +7957,9 @@
         <v>1</v>
       </c>
       <c r="R123" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S123" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7611,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" s="1" t="n">
         <v>1</v>
@@ -7620,10 +7991,10 @@
         <v>1</v>
       </c>
       <c r="I124" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" s="1" t="n">
         <v>1</v>
@@ -7647,6 +8018,9 @@
         <v>1</v>
       </c>
       <c r="R124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S124" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7669,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" s="1" t="n">
         <v>1</v>
@@ -7678,10 +8052,10 @@
         <v>1</v>
       </c>
       <c r="I125" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" s="1" t="n">
         <v>1</v>
@@ -7705,6 +8079,9 @@
         <v>1</v>
       </c>
       <c r="R125" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S125" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7727,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" s="1" t="n">
         <v>1</v>
@@ -7736,10 +8113,10 @@
         <v>1</v>
       </c>
       <c r="I126" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" s="1" t="n">
         <v>1</v>
@@ -7763,6 +8140,9 @@
         <v>1</v>
       </c>
       <c r="R126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S126" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7785,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" s="1" t="n">
         <v>1</v>
@@ -7794,10 +8174,10 @@
         <v>1</v>
       </c>
       <c r="I127" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" s="1" t="n">
         <v>1</v>
@@ -7821,6 +8201,9 @@
         <v>1</v>
       </c>
       <c r="R127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S127" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="1" t="n">
         <v>1</v>
@@ -7852,10 +8235,10 @@
         <v>1</v>
       </c>
       <c r="I128" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" s="1" t="n">
         <v>1</v>
@@ -7879,6 +8262,9 @@
         <v>1</v>
       </c>
       <c r="R128" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S128" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7901,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="1" t="n">
         <v>1</v>
@@ -7910,10 +8296,10 @@
         <v>1</v>
       </c>
       <c r="I129" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="1" t="n">
         <v>1</v>
@@ -7937,6 +8323,9 @@
         <v>1</v>
       </c>
       <c r="R129" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S129" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7959,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" s="1" t="n">
         <v>1</v>
@@ -7968,10 +8357,10 @@
         <v>1</v>
       </c>
       <c r="I130" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" s="1" t="n">
         <v>1</v>
@@ -7980,10 +8369,10 @@
         <v>1</v>
       </c>
       <c r="M130" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O130" s="1" t="n">
         <v>1</v>
@@ -7995,6 +8384,9 @@
         <v>1</v>
       </c>
       <c r="R130" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S130" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8017,7 +8409,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" s="1" t="n">
         <v>1</v>
@@ -8026,10 +8418,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" s="1" t="n">
         <v>1</v>
@@ -8053,6 +8445,9 @@
         <v>1</v>
       </c>
       <c r="R131" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S131" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8075,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" s="1" t="n">
         <v>1</v>
@@ -8084,10 +8479,10 @@
         <v>1</v>
       </c>
       <c r="I132" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" s="1" t="n">
         <v>1</v>
@@ -8111,6 +8506,9 @@
         <v>1</v>
       </c>
       <c r="R132" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S132" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8133,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" s="1" t="n">
         <v>1</v>
@@ -8142,10 +8540,10 @@
         <v>1</v>
       </c>
       <c r="I133" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" s="1" t="n">
         <v>1</v>
@@ -8169,6 +8567,9 @@
         <v>1</v>
       </c>
       <c r="R133" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S133" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8191,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" s="1" t="n">
         <v>1</v>
@@ -8200,10 +8601,10 @@
         <v>1</v>
       </c>
       <c r="I134" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" s="1" t="n">
         <v>1</v>
@@ -8227,6 +8628,9 @@
         <v>1</v>
       </c>
       <c r="R134" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S134" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8249,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" s="1" t="n">
         <v>1</v>
@@ -8258,10 +8662,10 @@
         <v>1</v>
       </c>
       <c r="I135" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" s="1" t="n">
         <v>1</v>
@@ -8285,6 +8689,9 @@
         <v>1</v>
       </c>
       <c r="R135" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S135" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8307,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" s="1" t="n">
         <v>1</v>
@@ -8316,16 +8723,16 @@
         <v>1</v>
       </c>
       <c r="I136" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M136" s="1" t="n">
         <v>1</v>
@@ -8334,15 +8741,18 @@
         <v>1</v>
       </c>
       <c r="O136" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P136" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q136" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R136" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S136" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8365,7 +8775,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" s="1" t="n">
         <v>1</v>
@@ -8374,10 +8784,10 @@
         <v>1</v>
       </c>
       <c r="I137" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" s="1" t="n">
         <v>1</v>
@@ -8401,6 +8811,9 @@
         <v>1</v>
       </c>
       <c r="R137" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S137" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8423,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" s="1" t="n">
         <v>1</v>
@@ -8432,10 +8845,10 @@
         <v>1</v>
       </c>
       <c r="I138" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" s="1" t="n">
         <v>1</v>
@@ -8459,6 +8872,9 @@
         <v>1</v>
       </c>
       <c r="R138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S138" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8481,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" s="1" t="n">
         <v>1</v>
@@ -8490,10 +8906,10 @@
         <v>1</v>
       </c>
       <c r="I139" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" s="1" t="n">
         <v>1</v>
@@ -8502,13 +8918,13 @@
         <v>1</v>
       </c>
       <c r="M139" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O139" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P139" s="1" t="n">
         <v>1</v>
@@ -8517,6 +8933,9 @@
         <v>1</v>
       </c>
       <c r="R139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S139" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8539,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" s="1" t="n">
         <v>1</v>
@@ -8548,10 +8967,10 @@
         <v>1</v>
       </c>
       <c r="I140" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" s="1" t="n">
         <v>1</v>
@@ -8575,6 +8994,9 @@
         <v>1</v>
       </c>
       <c r="R140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S140" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8597,7 +9019,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" s="1" t="n">
         <v>1</v>
@@ -8606,10 +9028,10 @@
         <v>1</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141" s="1" t="n">
         <v>1</v>
@@ -8633,6 +9055,9 @@
         <v>1</v>
       </c>
       <c r="R141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S141" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8655,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" s="1" t="n">
         <v>1</v>
@@ -8664,33 +9089,36 @@
         <v>1</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L142" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M142" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O142" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P142" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q142" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R142" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S142" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8713,7 +9141,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" s="1" t="n">
         <v>1</v>
@@ -8722,10 +9150,10 @@
         <v>1</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" s="1" t="n">
         <v>1</v>
@@ -8749,6 +9177,9 @@
         <v>1</v>
       </c>
       <c r="R143" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S143" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8771,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" s="1" t="n">
         <v>1</v>
@@ -8780,10 +9211,10 @@
         <v>1</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" s="1" t="n">
         <v>1</v>
@@ -8807,6 +9238,9 @@
         <v>1</v>
       </c>
       <c r="R144" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S144" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8844,16 +9278,16 @@
         <v>0</v>
       </c>
       <c r="K145" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M145" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O145" s="1" t="n">
         <v>1</v>
@@ -8865,6 +9299,9 @@
         <v>1</v>
       </c>
       <c r="R145" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S145" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8887,7 +9324,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" s="1" t="n">
         <v>1</v>
@@ -8896,10 +9333,10 @@
         <v>1</v>
       </c>
       <c r="I146" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" s="1" t="n">
         <v>1</v>
@@ -8923,6 +9360,9 @@
         <v>1</v>
       </c>
       <c r="R146" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S146" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8945,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" s="1" t="n">
         <v>1</v>
@@ -8954,10 +9394,10 @@
         <v>1</v>
       </c>
       <c r="I147" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" s="1" t="n">
         <v>1</v>
@@ -8981,6 +9421,9 @@
         <v>1</v>
       </c>
       <c r="R147" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S147" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9003,7 +9446,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" s="1" t="n">
         <v>1</v>
@@ -9012,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148" s="1" t="n">
         <v>1</v>
@@ -9039,6 +9482,9 @@
         <v>1</v>
       </c>
       <c r="R148" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S148" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9076,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="K149" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L149" s="1" t="n">
         <v>1</v>
@@ -9097,6 +9543,9 @@
         <v>1</v>
       </c>
       <c r="R149" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S149" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9134,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="K150" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L150" s="1" t="n">
         <v>1</v>
@@ -9155,6 +9604,9 @@
         <v>1</v>
       </c>
       <c r="R150" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S150" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9192,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="K151" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L151" s="1" t="n">
         <v>1</v>
@@ -9213,6 +9665,9 @@
         <v>1</v>
       </c>
       <c r="R151" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S151" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9250,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="K152" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L152" s="1" t="n">
         <v>1</v>
@@ -9271,6 +9726,9 @@
         <v>1</v>
       </c>
       <c r="R152" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S152" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9308,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="K153" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L153" s="1" t="n">
         <v>1</v>
@@ -9329,6 +9787,9 @@
         <v>1</v>
       </c>
       <c r="R153" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S153" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9366,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L154" s="1" t="n">
         <v>1</v>
@@ -9387,6 +9848,9 @@
         <v>1</v>
       </c>
       <c r="R154" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S154" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9424,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L155" s="1" t="n">
         <v>1</v>
@@ -9445,6 +9909,9 @@
         <v>1</v>
       </c>
       <c r="R155" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S155" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9482,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156" s="1" t="n">
         <v>1</v>
@@ -9503,6 +9970,9 @@
         <v>1</v>
       </c>
       <c r="R156" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S156" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9540,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="K157" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L157" s="1" t="n">
         <v>1</v>
@@ -9549,10 +10019,10 @@
         <v>1</v>
       </c>
       <c r="N157" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O157" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P157" s="1" t="n">
         <v>1</v>
@@ -9561,6 +10031,9 @@
         <v>1</v>
       </c>
       <c r="R157" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S157" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9621,6 +10094,9 @@
       <c r="R158" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S158" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -9679,6 +10155,9 @@
       <c r="R159" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S159" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -9737,6 +10216,9 @@
       <c r="R160" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S160" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -9795,6 +10277,9 @@
       <c r="R161" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S161" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -9815,7 +10300,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" s="1" t="n">
         <v>1</v>
@@ -9824,10 +10309,10 @@
         <v>1</v>
       </c>
       <c r="I162" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K162" s="1" t="n">
         <v>1</v>
@@ -9851,6 +10336,9 @@
         <v>1</v>
       </c>
       <c r="R162" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S162" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9873,7 +10361,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" s="1" t="n">
         <v>1</v>
@@ -9882,10 +10370,10 @@
         <v>1</v>
       </c>
       <c r="I163" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" s="1" t="n">
         <v>1</v>
@@ -9909,6 +10397,9 @@
         <v>1</v>
       </c>
       <c r="R163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S163" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9931,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" s="1" t="n">
         <v>1</v>
@@ -9940,10 +10431,10 @@
         <v>1</v>
       </c>
       <c r="I164" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K164" s="1" t="n">
         <v>1</v>
@@ -9967,6 +10458,9 @@
         <v>1</v>
       </c>
       <c r="R164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S164" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9989,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" s="1" t="n">
         <v>1</v>
@@ -9998,10 +10492,10 @@
         <v>1</v>
       </c>
       <c r="I165" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" s="1" t="n">
         <v>1</v>
@@ -10013,10 +10507,10 @@
         <v>1</v>
       </c>
       <c r="N165" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O165" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P165" s="1" t="n">
         <v>1</v>
@@ -10025,6 +10519,9 @@
         <v>1</v>
       </c>
       <c r="R165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S165" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10047,7 +10544,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" s="1" t="n">
         <v>1</v>
@@ -10056,10 +10553,10 @@
         <v>1</v>
       </c>
       <c r="I166" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166" s="1" t="n">
         <v>1</v>
@@ -10083,6 +10580,9 @@
         <v>1</v>
       </c>
       <c r="R166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S166" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10105,7 +10605,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" s="1" t="n">
         <v>1</v>
@@ -10114,10 +10614,10 @@
         <v>1</v>
       </c>
       <c r="I167" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" s="1" t="n">
         <v>1</v>
@@ -10141,6 +10641,9 @@
         <v>1</v>
       </c>
       <c r="R167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S167" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10163,7 +10666,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" s="1" t="n">
         <v>1</v>
@@ -10172,10 +10675,10 @@
         <v>1</v>
       </c>
       <c r="I168" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" s="1" t="n">
         <v>1</v>
@@ -10199,6 +10702,9 @@
         <v>1</v>
       </c>
       <c r="R168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S168" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10221,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" s="1" t="n">
         <v>1</v>
@@ -10230,10 +10736,10 @@
         <v>1</v>
       </c>
       <c r="I169" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" s="1" t="n">
         <v>1</v>
@@ -10242,10 +10748,10 @@
         <v>1</v>
       </c>
       <c r="M169" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N169" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O169" s="1" t="n">
         <v>1</v>
@@ -10257,6 +10763,9 @@
         <v>1</v>
       </c>
       <c r="R169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S169" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10279,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170" s="1" t="n">
         <v>1</v>
@@ -10288,10 +10797,10 @@
         <v>1</v>
       </c>
       <c r="I170" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170" s="1" t="n">
         <v>1</v>
@@ -10315,6 +10824,9 @@
         <v>1</v>
       </c>
       <c r="R170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S170" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10337,7 +10849,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" s="1" t="n">
         <v>1</v>
@@ -10346,10 +10858,10 @@
         <v>1</v>
       </c>
       <c r="I171" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171" s="1" t="n">
         <v>1</v>
@@ -10373,6 +10885,9 @@
         <v>1</v>
       </c>
       <c r="R171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S171" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10395,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" s="1" t="n">
         <v>1</v>
@@ -10404,10 +10919,10 @@
         <v>1</v>
       </c>
       <c r="I172" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" s="1" t="n">
         <v>1</v>
@@ -10431,6 +10946,9 @@
         <v>1</v>
       </c>
       <c r="R172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S172" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10453,7 +10971,7 @@
         <v>1</v>
       </c>
       <c r="F173" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" s="1" t="n">
         <v>1</v>
@@ -10462,10 +10980,10 @@
         <v>1</v>
       </c>
       <c r="I173" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" s="1" t="n">
         <v>1</v>
@@ -10489,6 +11007,9 @@
         <v>1</v>
       </c>
       <c r="R173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S173" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10511,7 +11032,7 @@
         <v>1</v>
       </c>
       <c r="F174" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" s="1" t="n">
         <v>1</v>
@@ -10520,10 +11041,10 @@
         <v>1</v>
       </c>
       <c r="I174" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174" s="1" t="n">
         <v>1</v>
@@ -10547,6 +11068,9 @@
         <v>1</v>
       </c>
       <c r="R174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S174" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10569,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" s="1" t="n">
         <v>1</v>
@@ -10578,10 +11102,10 @@
         <v>1</v>
       </c>
       <c r="I175" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" s="1" t="n">
         <v>1</v>
@@ -10605,6 +11129,9 @@
         <v>1</v>
       </c>
       <c r="R175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S175" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10627,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>1</v>
@@ -10636,16 +11163,16 @@
         <v>1</v>
       </c>
       <c r="I176" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K176" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M176" s="1" t="n">
         <v>1</v>
@@ -10654,15 +11181,18 @@
         <v>1</v>
       </c>
       <c r="O176" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P176" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q176" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S176" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10685,7 +11215,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" s="1" t="n">
         <v>1</v>
@@ -10694,10 +11224,10 @@
         <v>1</v>
       </c>
       <c r="I177" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K177" s="1" t="n">
         <v>1</v>
@@ -10706,10 +11236,10 @@
         <v>1</v>
       </c>
       <c r="M177" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N177" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O177" s="1" t="n">
         <v>1</v>
@@ -10721,6 +11251,9 @@
         <v>1</v>
       </c>
       <c r="R177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S177" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10743,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178" s="1" t="n">
         <v>1</v>
@@ -10752,10 +11285,10 @@
         <v>1</v>
       </c>
       <c r="I178" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178" s="1" t="n">
         <v>1</v>
@@ -10779,6 +11312,9 @@
         <v>1</v>
       </c>
       <c r="R178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S178" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10801,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" s="1" t="n">
         <v>1</v>
@@ -10810,10 +11346,10 @@
         <v>1</v>
       </c>
       <c r="I179" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179" s="1" t="n">
         <v>1</v>
@@ -10837,6 +11373,9 @@
         <v>1</v>
       </c>
       <c r="R179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S179" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10859,7 +11398,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" s="1" t="n">
         <v>1</v>
@@ -10868,10 +11407,10 @@
         <v>1</v>
       </c>
       <c r="I180" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180" s="1" t="n">
         <v>1</v>
@@ -10895,6 +11434,9 @@
         <v>1</v>
       </c>
       <c r="R180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S180" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10926,10 +11468,10 @@
         <v>1</v>
       </c>
       <c r="I181" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181" s="1" t="n">
         <v>1</v>
@@ -10953,6 +11495,9 @@
         <v>1</v>
       </c>
       <c r="R181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S181" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10975,7 +11520,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" s="1" t="n">
         <v>1</v>
@@ -10984,33 +11529,36 @@
         <v>1</v>
       </c>
       <c r="I182" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L182" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M182" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N182" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O182" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P182" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q182" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S182" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11033,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>1</v>
@@ -11042,10 +11590,10 @@
         <v>1</v>
       </c>
       <c r="I183" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183" s="1" t="n">
         <v>1</v>
@@ -11054,10 +11602,10 @@
         <v>1</v>
       </c>
       <c r="M183" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N183" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O183" s="1" t="n">
         <v>1</v>
@@ -11069,6 +11617,9 @@
         <v>1</v>
       </c>
       <c r="R183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S183" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11091,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" s="1" t="n">
         <v>1</v>
@@ -11100,10 +11651,10 @@
         <v>1</v>
       </c>
       <c r="I184" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184" s="1" t="n">
         <v>1</v>
@@ -11127,6 +11678,9 @@
         <v>1</v>
       </c>
       <c r="R184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S184" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11164,19 +11718,19 @@
         <v>0</v>
       </c>
       <c r="K185" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L185" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M185" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N185" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O185" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P185" s="1" t="n">
         <v>1</v>
@@ -11185,6 +11739,9 @@
         <v>1</v>
       </c>
       <c r="R185" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S185" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11207,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="F186" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186" s="1" t="n">
         <v>1</v>
@@ -11216,10 +11773,10 @@
         <v>1</v>
       </c>
       <c r="I186" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K186" s="1" t="n">
         <v>1</v>
@@ -11243,6 +11800,9 @@
         <v>1</v>
       </c>
       <c r="R186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S186" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11265,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="F187" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" s="1" t="n">
         <v>1</v>
@@ -11274,10 +11834,10 @@
         <v>1</v>
       </c>
       <c r="I187" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187" s="1" t="n">
         <v>1</v>
@@ -11301,6 +11861,9 @@
         <v>1</v>
       </c>
       <c r="R187" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S187" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11323,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="F188" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188" s="1" t="n">
         <v>1</v>
@@ -11332,10 +11895,10 @@
         <v>1</v>
       </c>
       <c r="I188" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188" s="1" t="n">
         <v>1</v>
@@ -11359,6 +11922,9 @@
         <v>1</v>
       </c>
       <c r="R188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S188" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11396,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="K189" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L189" s="1" t="n">
         <v>1</v>
@@ -11417,6 +11983,9 @@
         <v>1</v>
       </c>
       <c r="R189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S189" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11454,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="K190" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L190" s="1" t="n">
         <v>1</v>
@@ -11475,6 +12044,9 @@
         <v>1</v>
       </c>
       <c r="R190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S190" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11512,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="K191" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L191" s="1" t="n">
         <v>1</v>
@@ -11521,10 +12093,10 @@
         <v>1</v>
       </c>
       <c r="N191" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O191" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P191" s="1" t="n">
         <v>1</v>
@@ -11533,6 +12105,9 @@
         <v>1</v>
       </c>
       <c r="R191" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S191" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11570,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="K192" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L192" s="1" t="n">
         <v>1</v>
@@ -11579,10 +12154,10 @@
         <v>1</v>
       </c>
       <c r="N192" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P192" s="1" t="n">
         <v>1</v>
@@ -11591,6 +12166,9 @@
         <v>1</v>
       </c>
       <c r="R192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S192" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11628,7 +12206,7 @@
         <v>0</v>
       </c>
       <c r="K193" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193" s="1" t="n">
         <v>1</v>
@@ -11637,10 +12215,10 @@
         <v>1</v>
       </c>
       <c r="N193" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O193" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P193" s="1" t="n">
         <v>1</v>
@@ -11649,6 +12227,9 @@
         <v>1</v>
       </c>
       <c r="R193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S193" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11686,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="K194" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L194" s="1" t="n">
         <v>1</v>
@@ -11695,10 +12276,10 @@
         <v>1</v>
       </c>
       <c r="N194" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O194" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P194" s="1" t="n">
         <v>1</v>
@@ -11707,6 +12288,9 @@
         <v>1</v>
       </c>
       <c r="R194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S194" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11744,13 +12328,13 @@
         <v>0</v>
       </c>
       <c r="K195" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L195" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M195" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195" s="1" t="n">
         <v>0</v>
@@ -11765,6 +12349,9 @@
         <v>1</v>
       </c>
       <c r="R195" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S195" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11802,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="K196" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L196" s="1" t="n">
         <v>1</v>
@@ -11811,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="N196" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O196" s="1" t="n">
         <v>1</v>
@@ -11823,6 +12410,9 @@
         <v>1</v>
       </c>
       <c r="R196" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S196" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11860,19 +12450,19 @@
         <v>0</v>
       </c>
       <c r="K197" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M197" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N197" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O197" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P197" s="1" t="n">
         <v>1</v>
@@ -11881,6 +12471,9 @@
         <v>1</v>
       </c>
       <c r="R197" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S197" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11941,6 +12534,9 @@
       <c r="R198" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S198" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -11999,6 +12595,9 @@
       <c r="R199" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S199" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -12057,6 +12656,9 @@
       <c r="R200" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S200" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -12115,6 +12717,9 @@
       <c r="R201" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S201" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -12135,7 +12740,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G202" s="1" t="n">
         <v>1</v>
@@ -12144,10 +12749,10 @@
         <v>1</v>
       </c>
       <c r="I202" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K202" s="1" t="n">
         <v>1</v>
@@ -12159,10 +12764,10 @@
         <v>1</v>
       </c>
       <c r="N202" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O202" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P202" s="1" t="n">
         <v>1</v>
@@ -12171,6 +12776,9 @@
         <v>1</v>
       </c>
       <c r="R202" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S202" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12193,7 +12801,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203" s="1" t="n">
         <v>1</v>
@@ -12202,10 +12810,10 @@
         <v>1</v>
       </c>
       <c r="I203" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203" s="1" t="n">
         <v>1</v>
@@ -12217,10 +12825,10 @@
         <v>1</v>
       </c>
       <c r="N203" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O203" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P203" s="1" t="n">
         <v>1</v>
@@ -12229,6 +12837,9 @@
         <v>1</v>
       </c>
       <c r="R203" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S203" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12251,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204" s="1" t="n">
         <v>1</v>
@@ -12260,10 +12871,10 @@
         <v>1</v>
       </c>
       <c r="I204" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K204" s="1" t="n">
         <v>1</v>
@@ -12272,13 +12883,13 @@
         <v>1</v>
       </c>
       <c r="M204" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N204" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O204" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P204" s="1" t="n">
         <v>1</v>
@@ -12287,6 +12898,9 @@
         <v>1</v>
       </c>
       <c r="R204" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S204" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12309,7 +12923,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205" s="1" t="n">
         <v>1</v>
@@ -12318,10 +12932,10 @@
         <v>1</v>
       </c>
       <c r="I205" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K205" s="1" t="n">
         <v>1</v>
@@ -12333,10 +12947,10 @@
         <v>1</v>
       </c>
       <c r="N205" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O205" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P205" s="1" t="n">
         <v>1</v>
@@ -12345,6 +12959,9 @@
         <v>1</v>
       </c>
       <c r="R205" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S205" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12367,7 +12984,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206" s="1" t="n">
         <v>1</v>
@@ -12376,10 +12993,10 @@
         <v>1</v>
       </c>
       <c r="I206" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K206" s="1" t="n">
         <v>1</v>
@@ -12391,10 +13008,10 @@
         <v>1</v>
       </c>
       <c r="N206" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O206" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P206" s="1" t="n">
         <v>1</v>
@@ -12403,6 +13020,9 @@
         <v>1</v>
       </c>
       <c r="R206" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S206" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12425,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207" s="1" t="n">
         <v>1</v>
@@ -12434,10 +13054,10 @@
         <v>1</v>
       </c>
       <c r="I207" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K207" s="1" t="n">
         <v>1</v>
@@ -12449,10 +13069,10 @@
         <v>1</v>
       </c>
       <c r="N207" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O207" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P207" s="1" t="n">
         <v>1</v>
@@ -12461,6 +13081,9 @@
         <v>1</v>
       </c>
       <c r="R207" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S207" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12483,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208" s="1" t="n">
         <v>1</v>
@@ -12492,10 +13115,10 @@
         <v>1</v>
       </c>
       <c r="I208" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K208" s="1" t="n">
         <v>1</v>
@@ -12507,10 +13130,10 @@
         <v>1</v>
       </c>
       <c r="N208" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O208" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P208" s="1" t="n">
         <v>1</v>
@@ -12519,6 +13142,9 @@
         <v>1</v>
       </c>
       <c r="R208" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S208" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12541,7 +13167,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G209" s="1" t="n">
         <v>1</v>
@@ -12550,10 +13176,10 @@
         <v>1</v>
       </c>
       <c r="I209" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K209" s="1" t="n">
         <v>1</v>
@@ -12562,13 +13188,13 @@
         <v>1</v>
       </c>
       <c r="M209" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N209" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O209" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P209" s="1" t="n">
         <v>1</v>
@@ -12577,6 +13203,9 @@
         <v>1</v>
       </c>
       <c r="R209" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S209" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12599,7 +13228,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G210" s="1" t="n">
         <v>1</v>
@@ -12608,10 +13237,10 @@
         <v>1</v>
       </c>
       <c r="I210" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K210" s="1" t="n">
         <v>1</v>
@@ -12620,13 +13249,13 @@
         <v>1</v>
       </c>
       <c r="M210" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N210" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O210" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P210" s="1" t="n">
         <v>1</v>
@@ -12635,6 +13264,9 @@
         <v>1</v>
       </c>
       <c r="R210" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S210" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12657,7 +13289,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G211" s="1" t="n">
         <v>1</v>
@@ -12666,10 +13298,10 @@
         <v>1</v>
       </c>
       <c r="I211" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K211" s="1" t="n">
         <v>1</v>
@@ -12678,13 +13310,13 @@
         <v>1</v>
       </c>
       <c r="M211" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N211" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O211" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P211" s="1" t="n">
         <v>1</v>
@@ -12693,6 +13325,9 @@
         <v>1</v>
       </c>
       <c r="R211" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S211" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12715,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212" s="1" t="n">
         <v>1</v>
@@ -12724,10 +13359,10 @@
         <v>1</v>
       </c>
       <c r="I212" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K212" s="1" t="n">
         <v>1</v>
@@ -12736,13 +13371,13 @@
         <v>1</v>
       </c>
       <c r="M212" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N212" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O212" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P212" s="1" t="n">
         <v>1</v>
@@ -12751,6 +13386,9 @@
         <v>1</v>
       </c>
       <c r="R212" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S212" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12782,10 +13420,10 @@
         <v>1</v>
       </c>
       <c r="I213" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K213" s="1" t="n">
         <v>1</v>
@@ -12794,13 +13432,13 @@
         <v>1</v>
       </c>
       <c r="M213" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N213" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O213" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P213" s="1" t="n">
         <v>1</v>
@@ -12809,6 +13447,9 @@
         <v>1</v>
       </c>
       <c r="R213" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S213" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12840,10 +13481,10 @@
         <v>1</v>
       </c>
       <c r="I214" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K214" s="1" t="n">
         <v>1</v>
@@ -12855,10 +13496,10 @@
         <v>1</v>
       </c>
       <c r="N214" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O214" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P214" s="1" t="n">
         <v>1</v>
@@ -12867,6 +13508,9 @@
         <v>1</v>
       </c>
       <c r="R214" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S214" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12889,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215" s="1" t="n">
         <v>1</v>
@@ -12898,10 +13542,10 @@
         <v>1</v>
       </c>
       <c r="I215" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215" s="1" t="n">
         <v>1</v>
@@ -12910,13 +13554,13 @@
         <v>1</v>
       </c>
       <c r="M215" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N215" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O215" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P215" s="1" t="n">
         <v>1</v>
@@ -12925,6 +13569,9 @@
         <v>1</v>
       </c>
       <c r="R215" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S215" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12956,33 +13603,36 @@
         <v>1</v>
       </c>
       <c r="I216" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K216" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L216" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M216" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N216" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O216" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P216" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q216" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R216" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S216" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13005,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G217" s="1" t="n">
         <v>1</v>
@@ -13014,10 +13664,10 @@
         <v>1</v>
       </c>
       <c r="I217" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K217" s="1" t="n">
         <v>1</v>
@@ -13026,13 +13676,13 @@
         <v>1</v>
       </c>
       <c r="M217" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N217" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O217" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P217" s="1" t="n">
         <v>1</v>
@@ -13041,6 +13691,9 @@
         <v>1</v>
       </c>
       <c r="R217" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S217" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13063,7 +13716,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G218" s="1" t="n">
         <v>1</v>
@@ -13072,10 +13725,10 @@
         <v>1</v>
       </c>
       <c r="I218" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K218" s="1" t="n">
         <v>1</v>
@@ -13084,13 +13737,13 @@
         <v>1</v>
       </c>
       <c r="M218" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N218" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O218" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P218" s="1" t="n">
         <v>1</v>
@@ -13099,6 +13752,9 @@
         <v>1</v>
       </c>
       <c r="R218" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S218" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13121,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219" s="1" t="n">
         <v>1</v>
@@ -13130,10 +13786,10 @@
         <v>1</v>
       </c>
       <c r="I219" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K219" s="1" t="n">
         <v>1</v>
@@ -13142,13 +13798,13 @@
         <v>1</v>
       </c>
       <c r="M219" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N219" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O219" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P219" s="1" t="n">
         <v>1</v>
@@ -13157,6 +13813,9 @@
         <v>1</v>
       </c>
       <c r="R219" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S219" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13179,7 +13838,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G220" s="1" t="n">
         <v>1</v>
@@ -13188,10 +13847,10 @@
         <v>1</v>
       </c>
       <c r="I220" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220" s="1" t="n">
         <v>1</v>
@@ -13200,13 +13859,13 @@
         <v>1</v>
       </c>
       <c r="M220" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N220" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O220" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P220" s="1" t="n">
         <v>1</v>
@@ -13215,6 +13874,9 @@
         <v>1</v>
       </c>
       <c r="R220" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S220" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13237,7 +13899,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221" s="1" t="n">
         <v>1</v>
@@ -13246,10 +13908,10 @@
         <v>1</v>
       </c>
       <c r="I221" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K221" s="1" t="n">
         <v>1</v>
@@ -13258,13 +13920,13 @@
         <v>1</v>
       </c>
       <c r="M221" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N221" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O221" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P221" s="1" t="n">
         <v>1</v>
@@ -13273,6 +13935,9 @@
         <v>1</v>
       </c>
       <c r="R221" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S221" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13295,7 +13960,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G222" s="1" t="n">
         <v>1</v>
@@ -13304,16 +13969,16 @@
         <v>1</v>
       </c>
       <c r="I222" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K222" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L222" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M222" s="1" t="n">
         <v>0</v>
@@ -13322,15 +13987,18 @@
         <v>0</v>
       </c>
       <c r="O222" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P222" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q222" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R222" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S222" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13353,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G223" s="1" t="n">
         <v>1</v>
@@ -13362,10 +14030,10 @@
         <v>1</v>
       </c>
       <c r="I223" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K223" s="1" t="n">
         <v>1</v>
@@ -13374,13 +14042,13 @@
         <v>1</v>
       </c>
       <c r="M223" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N223" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O223" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P223" s="1" t="n">
         <v>1</v>
@@ -13389,6 +14057,9 @@
         <v>1</v>
       </c>
       <c r="R223" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S223" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13411,7 +14082,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224" s="1" t="n">
         <v>1</v>
@@ -13420,10 +14091,10 @@
         <v>1</v>
       </c>
       <c r="I224" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K224" s="1" t="n">
         <v>1</v>
@@ -13432,13 +14103,13 @@
         <v>1</v>
       </c>
       <c r="M224" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N224" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O224" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P224" s="1" t="n">
         <v>1</v>
@@ -13447,6 +14118,9 @@
         <v>1</v>
       </c>
       <c r="R224" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S224" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13484,19 +14158,19 @@
         <v>0</v>
       </c>
       <c r="K225" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L225" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M225" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N225" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O225" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P225" s="1" t="n">
         <v>1</v>
@@ -13505,6 +14179,9 @@
         <v>1</v>
       </c>
       <c r="R225" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S225" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13527,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G226" s="1" t="n">
         <v>1</v>
@@ -13536,10 +14213,10 @@
         <v>1</v>
       </c>
       <c r="I226" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K226" s="1" t="n">
         <v>1</v>
@@ -13548,13 +14225,13 @@
         <v>1</v>
       </c>
       <c r="M226" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N226" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O226" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P226" s="1" t="n">
         <v>1</v>
@@ -13563,6 +14240,9 @@
         <v>1</v>
       </c>
       <c r="R226" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S226" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13585,7 +14265,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227" s="1" t="n">
         <v>1</v>
@@ -13594,10 +14274,10 @@
         <v>1</v>
       </c>
       <c r="I227" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227" s="1" t="n">
         <v>1</v>
@@ -13606,13 +14286,13 @@
         <v>1</v>
       </c>
       <c r="M227" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N227" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O227" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P227" s="1" t="n">
         <v>1</v>
@@ -13621,6 +14301,9 @@
         <v>1</v>
       </c>
       <c r="R227" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S227" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13643,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G228" s="1" t="n">
         <v>1</v>
@@ -13652,10 +14335,10 @@
         <v>1</v>
       </c>
       <c r="I228" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K228" s="1" t="n">
         <v>1</v>
@@ -13664,13 +14347,13 @@
         <v>1</v>
       </c>
       <c r="M228" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N228" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O228" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P228" s="1" t="n">
         <v>1</v>
@@ -13679,6 +14362,9 @@
         <v>1</v>
       </c>
       <c r="R228" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S228" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13716,19 +14402,19 @@
         <v>0</v>
       </c>
       <c r="K229" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L229" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M229" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N229" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O229" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P229" s="1" t="n">
         <v>1</v>
@@ -13737,6 +14423,9 @@
         <v>1</v>
       </c>
       <c r="R229" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S229" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13774,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="K230" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L230" s="1" t="n">
         <v>1</v>
@@ -13783,10 +14472,10 @@
         <v>1</v>
       </c>
       <c r="N230" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O230" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P230" s="1" t="n">
         <v>1</v>
@@ -13795,6 +14484,9 @@
         <v>1</v>
       </c>
       <c r="R230" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S230" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13832,19 +14524,19 @@
         <v>0</v>
       </c>
       <c r="K231" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L231" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M231" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N231" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O231" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P231" s="1" t="n">
         <v>1</v>
@@ -13853,6 +14545,9 @@
         <v>1</v>
       </c>
       <c r="R231" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S231" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13890,19 +14585,19 @@
         <v>0</v>
       </c>
       <c r="K232" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L232" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M232" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N232" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O232" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P232" s="1" t="n">
         <v>1</v>
@@ -13911,6 +14606,9 @@
         <v>1</v>
       </c>
       <c r="R232" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S232" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13948,19 +14646,19 @@
         <v>0</v>
       </c>
       <c r="K233" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L233" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M233" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N233" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O233" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P233" s="1" t="n">
         <v>1</v>
@@ -13969,6 +14667,9 @@
         <v>1</v>
       </c>
       <c r="R233" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S233" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14006,19 +14707,19 @@
         <v>0</v>
       </c>
       <c r="K234" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L234" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M234" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N234" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O234" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P234" s="1" t="n">
         <v>1</v>
@@ -14027,6 +14728,9 @@
         <v>1</v>
       </c>
       <c r="R234" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S234" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14064,19 +14768,19 @@
         <v>0</v>
       </c>
       <c r="K235" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L235" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M235" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N235" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O235" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P235" s="1" t="n">
         <v>1</v>
@@ -14085,6 +14789,9 @@
         <v>1</v>
       </c>
       <c r="R235" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S235" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14122,19 +14829,19 @@
         <v>0</v>
       </c>
       <c r="K236" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L236" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M236" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N236" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O236" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P236" s="1" t="n">
         <v>1</v>
@@ -14143,6 +14850,9 @@
         <v>1</v>
       </c>
       <c r="R236" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S236" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14180,19 +14890,19 @@
         <v>0</v>
       </c>
       <c r="K237" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L237" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M237" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N237" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O237" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P237" s="1" t="n">
         <v>1</v>
@@ -14201,6 +14911,9 @@
         <v>1</v>
       </c>
       <c r="R237" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S237" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14261,6 +14974,9 @@
       <c r="R238" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S238" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -14319,6 +15035,9 @@
       <c r="R239" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S239" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -14377,6 +15096,9 @@
       <c r="R240" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S240" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -14435,9 +15157,12 @@
       <c r="R241" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S241" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:R241">
+  <conditionalFormatting sqref="B2:S241">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="0"/>

--- a/dorm_dict.xlsx
+++ b/dorm_dict.xlsx
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1" t="n">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>1</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="M62" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" s="1" t="n">
         <v>1</v>
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>1</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="1" t="n">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1" t="n">
         <v>1</v>
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1" t="n">
         <v>1</v>
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1" t="n">
         <v>1</v>
@@ -5432,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="1" t="n">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="1" t="n">
         <v>1</v>
@@ -5554,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="1" t="n">
         <v>1</v>
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="1" t="n">
         <v>1</v>
@@ -5676,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="1" t="n">
         <v>1</v>
@@ -5737,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="1" t="n">
         <v>1</v>
@@ -5798,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" s="1" t="n">
         <v>1</v>
@@ -5859,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="1" t="n">
         <v>1</v>
@@ -5920,7 +5920,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="1" t="n">
         <v>1</v>
@@ -5981,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" s="1" t="n">
         <v>1</v>
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="1" t="n">
         <v>1</v>
@@ -6103,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="1" t="n">
         <v>1</v>
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" s="1" t="n">
         <v>1</v>
@@ -7954,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="Q123" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R123" s="1" t="n">
         <v>1</v>
@@ -8067,7 +8067,7 @@
         <v>1</v>
       </c>
       <c r="N125" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" s="1" t="n">
         <v>1</v>
@@ -8153,7 +8153,7 @@
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>1</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" s="1" t="n">
         <v>0</v>
@@ -10327,7 +10327,7 @@
         <v>1</v>
       </c>
       <c r="O162" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P162" s="1" t="n">
         <v>1</v>
@@ -10388,7 +10388,7 @@
         <v>1</v>
       </c>
       <c r="O163" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P163" s="1" t="n">
         <v>1</v>
@@ -10449,7 +10449,7 @@
         <v>1</v>
       </c>
       <c r="O164" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P164" s="1" t="n">
         <v>1</v>
@@ -10550,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" s="1" t="n">
         <v>1</v>
@@ -10571,7 +10571,7 @@
         <v>1</v>
       </c>
       <c r="O166" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P166" s="1" t="n">
         <v>1</v>
@@ -10611,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="H167" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" s="1" t="n">
         <v>1</v>
@@ -10632,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="O167" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P167" s="1" t="n">
         <v>1</v>
@@ -10672,7 +10672,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" s="1" t="n">
         <v>1</v>
@@ -10693,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="O168" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P168" s="1" t="n">
         <v>1</v>
@@ -10733,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="H169" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" s="1" t="n">
         <v>1</v>
@@ -10748,13 +10748,13 @@
         <v>1</v>
       </c>
       <c r="M169" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N169" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O169" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P169" s="1" t="n">
         <v>1</v>
@@ -10794,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="H170" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" s="1" t="n">
         <v>1</v>
@@ -10809,13 +10809,13 @@
         <v>1</v>
       </c>
       <c r="M170" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N170" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O170" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P170" s="1" t="n">
         <v>1</v>
@@ -10870,13 +10870,13 @@
         <v>1</v>
       </c>
       <c r="M171" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N171" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O171" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P171" s="1" t="n">
         <v>1</v>
@@ -10916,7 +10916,7 @@
         <v>1</v>
       </c>
       <c r="H172" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" s="1" t="n">
         <v>1</v>
@@ -10931,13 +10931,13 @@
         <v>1</v>
       </c>
       <c r="M172" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N172" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O172" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P172" s="1" t="n">
         <v>1</v>
@@ -10977,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="H173" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" s="1" t="n">
         <v>1</v>
@@ -10998,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="O173" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P173" s="1" t="n">
         <v>1</v>
@@ -11059,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="O174" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P174" s="1" t="n">
         <v>1</v>
@@ -11120,7 +11120,7 @@
         <v>1</v>
       </c>
       <c r="O175" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P175" s="1" t="n">
         <v>1</v>
@@ -11181,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="O176" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P176" s="1" t="n">
         <v>0</v>
@@ -11242,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="O177" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P177" s="1" t="n">
         <v>1</v>
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="O178" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P178" s="1" t="n">
         <v>1</v>
@@ -11364,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="O179" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P179" s="1" t="n">
         <v>1</v>
@@ -11425,7 +11425,7 @@
         <v>1</v>
       </c>
       <c r="O180" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P180" s="1" t="n">
         <v>1</v>
@@ -11486,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="O181" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P181" s="1" t="n">
         <v>1</v>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="O183" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P183" s="1" t="n">
         <v>1</v>
@@ -11669,7 +11669,7 @@
         <v>1</v>
       </c>
       <c r="O184" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P184" s="1" t="n">
         <v>1</v>
@@ -11700,7 +11700,7 @@
         <v>1</v>
       </c>
       <c r="E185" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" s="1" t="n">
         <v>0</v>
@@ -11791,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="O186" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P186" s="1" t="n">
         <v>1</v>
@@ -11852,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="O187" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P187" s="1" t="n">
         <v>1</v>
@@ -11974,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="O189" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P189" s="1" t="n">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="S197" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -12764,7 +12764,7 @@
         <v>1</v>
       </c>
       <c r="N202" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O202" s="1" t="n">
         <v>0</v>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="N203" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O203" s="1" t="n">
         <v>0</v>
@@ -12947,7 +12947,7 @@
         <v>1</v>
       </c>
       <c r="N205" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O205" s="1" t="n">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="N206" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O206" s="1" t="n">
         <v>0</v>
@@ -13069,7 +13069,7 @@
         <v>1</v>
       </c>
       <c r="N207" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O207" s="1" t="n">
         <v>0</v>
@@ -13130,7 +13130,7 @@
         <v>1</v>
       </c>
       <c r="N208" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O208" s="1" t="n">
         <v>0</v>
@@ -13322,7 +13322,7 @@
         <v>1</v>
       </c>
       <c r="Q211" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R211" s="1" t="n">
         <v>1</v>
@@ -13496,7 +13496,7 @@
         <v>1</v>
       </c>
       <c r="N214" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O214" s="1" t="n">
         <v>0</v>
@@ -13618,7 +13618,7 @@
         <v>1</v>
       </c>
       <c r="N216" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O216" s="1" t="n">
         <v>0</v>
@@ -13630,7 +13630,7 @@
         <v>1</v>
       </c>
       <c r="R216" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S216" s="1" t="n">
         <v>1</v>
@@ -13783,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="H219" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" s="1" t="n">
         <v>1</v>
@@ -14140,7 +14140,7 @@
         <v>1</v>
       </c>
       <c r="E225" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225" s="1" t="n">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>1</v>
       </c>
       <c r="H226" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" s="1" t="n">
         <v>1</v>
@@ -14295,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="P227" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q227" s="1" t="n">
         <v>1</v>
@@ -14332,7 +14332,7 @@
         <v>1</v>
       </c>
       <c r="H228" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" s="1" t="n">
         <v>1</v>
@@ -14356,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="P228" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q228" s="1" t="n">
         <v>1</v>
@@ -14472,13 +14472,13 @@
         <v>1</v>
       </c>
       <c r="N230" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O230" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P230" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q230" s="1" t="n">
         <v>1</v>
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="P231" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q231" s="1" t="n">
         <v>1</v>

--- a/dorm_dict.xlsx
+++ b/dorm_dict.xlsx
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" s="1" t="n">
         <v>1</v>
@@ -8153,7 +8153,7 @@
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>1</v>
@@ -10550,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" s="1" t="n">
         <v>1</v>
@@ -10611,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="H167" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" s="1" t="n">
         <v>1</v>
@@ -10672,7 +10672,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" s="1" t="n">
         <v>1</v>
@@ -10977,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="H173" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" s="1" t="n">
         <v>1</v>

--- a/dorm_dict.xlsx
+++ b/dorm_dict.xlsx
@@ -10656,7 +10656,11 @@
           <t>机械23</t>
         </is>
       </c>
-      <c r="M142" s="1" t="n"/>
+      <c r="M142" s="1" t="inlineStr">
+        <is>
+          <t>计算23</t>
+        </is>
+      </c>
       <c r="N142" s="1" t="inlineStr">
         <is>
           <t>材料23</t>
@@ -12377,7 +12381,11 @@
           <t>机械23</t>
         </is>
       </c>
-      <c r="M169" s="1" t="n"/>
+      <c r="M169" s="1" t="inlineStr">
+        <is>
+          <t>计算23</t>
+        </is>
+      </c>
       <c r="N169" s="1" t="n"/>
       <c r="O169" s="1" t="n"/>
       <c r="P169" s="1" t="inlineStr">
@@ -12448,7 +12456,11 @@
           <t>英语23</t>
         </is>
       </c>
-      <c r="M170" s="1" t="n"/>
+      <c r="M170" s="1" t="inlineStr">
+        <is>
+          <t>计算23</t>
+        </is>
+      </c>
       <c r="N170" s="1" t="inlineStr">
         <is>
           <t>材料23</t>
@@ -12527,7 +12539,11 @@
           <t>英语23</t>
         </is>
       </c>
-      <c r="M171" s="1" t="n"/>
+      <c r="M171" s="1" t="inlineStr">
+        <is>
+          <t>计算23</t>
+        </is>
+      </c>
       <c r="N171" s="1" t="inlineStr">
         <is>
           <t>材料23</t>
@@ -12602,7 +12618,11 @@
           <t>英语23</t>
         </is>
       </c>
-      <c r="M172" s="1" t="n"/>
+      <c r="M172" s="1" t="inlineStr">
+        <is>
+          <t>计算23</t>
+        </is>
+      </c>
       <c r="N172" s="1" t="inlineStr">
         <is>
           <t>材料23</t>
@@ -15596,7 +15616,7 @@
       <c r="L216" s="1" t="n"/>
       <c r="M216" s="1" t="inlineStr">
         <is>
-          <t>生态23</t>
+          <t>机械23</t>
         </is>
       </c>
       <c r="N216" s="1" t="n"/>
@@ -16523,7 +16543,7 @@
       </c>
       <c r="M229" s="1" t="inlineStr">
         <is>
-          <t>生态23</t>
+          <t>计算23</t>
         </is>
       </c>
       <c r="N229" s="1" t="n"/>
